--- a/R1_documentation/3. R1_Tasks for User Stories_Team 3.xlsx
+++ b/R1_documentation/3. R1_Tasks for User Stories_Team 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radiy/Desktop/CS692/R1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rucha\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8821F9-F235-B947-851F-54865C83A5B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{395BB6EA-1B63-4CF9-96EE-8C2345D2B7E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I1" sheetId="1" r:id="rId1"/>
@@ -703,24 +703,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="3" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32.1640625" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -778,7 +778,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -836,7 +836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -862,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -894,7 +894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -923,7 +923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -952,7 +952,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -981,7 +981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -1094,10 +1094,10 @@
         <v>1</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -1213,13 +1213,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1230,7 +1230,7 @@
       <c r="H26"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1241,244 +1241,244 @@
       <c r="H27"/>
       <c r="I27"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
   </sheetData>
@@ -1494,20 +1494,20 @@
       <selection activeCell="E15" sqref="E15:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <f>SUM(A1,1)</f>
         <v>1</v>
@@ -1566,7 +1566,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <f t="shared" ref="A3:A17" si="0">SUM(A2,1)</f>
         <v>2</v>
@@ -1596,7 +1596,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1626,7 +1626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1656,7 +1656,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1686,7 +1686,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1716,7 +1716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1746,7 +1746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1776,7 +1776,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1806,7 +1806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1836,7 +1836,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1866,7 +1866,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1896,7 +1896,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1926,7 +1926,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1956,7 +1956,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1986,7 +1986,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2016,7 +2016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2027,8 +2027,8 @@
       <c r="H18" s="22"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2039,637 +2039,637 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96"/>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98"/>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100"/>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102"/>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104"/>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106"/>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108"/>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110"/>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242"/>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246"/>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248"/>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250"/>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254"/>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258"/>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262"/>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263"/>
     </row>
   </sheetData>
@@ -2685,20 +2685,20 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <f>SUM(A2,1)</f>
         <v>2</v>
@@ -2786,7 +2786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>2</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <f t="shared" ref="A5" si="0">SUM(A4,1)</f>
         <v>3</v>
@@ -2845,7 +2845,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>3</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <f t="shared" ref="A7" si="1">SUM(A6,1)</f>
         <v>4</v>
@@ -2904,7 +2904,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <f t="shared" ref="A9" si="2">SUM(A8,1)</f>
         <v>5</v>
@@ -2963,7 +2963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2977,20 +2977,20 @@
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
